--- a/tabelas_template/DISPLAY ZENFONE.xlsx
+++ b/tabelas_template/DISPLAY ZENFONE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonilson\Downloads\pdf_fabiano\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D33F9888-66E8-41CD-B74C-A4D5A2D16FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65390F67-A034-4DC8-A0BD-E6AFC7B2F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1695" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>DISPLAY ZENFONE</t>
   </si>
@@ -47,9 +47,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 85,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -67,12 +64,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 110,00</t>
-  </si>
-  <si>
-    <t>R$ 215,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -137,9 +128,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 100,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -157,9 +145,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 65,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -177,9 +162,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -197,9 +179,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 200,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -217,9 +196,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 90,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -237,9 +213,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 125,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -257,9 +230,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 70,00</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -280,9 +250,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 75,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -307,9 +274,6 @@
     </r>
   </si>
   <si>
-    <t>R$ 115,00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -325,9 +289,6 @@
       </rPr>
       <t xml:space="preserve"> S/ARO</t>
     </r>
-  </si>
-  <si>
-    <t>R$ 70,00</t>
   </si>
   <si>
     <r>
@@ -415,7 +376,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10">
@@ -506,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -538,6 +500,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +792,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -843,24 +811,24 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="11">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.95" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.95" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="12">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.95" customHeight="1">
@@ -869,122 +837,122 @@
     </row>
     <row r="6" spans="1:2" ht="15.95" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.95" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.95" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.95" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.95" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.95" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.95" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.95" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.95" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.95" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.95" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.95" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.95" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.95" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="22.5" customHeight="1"/>
